--- a/modeling/results/feature_imp_attr_text_emb.xlsx
+++ b/modeling/results/feature_imp_attr_text_emb.xlsx
@@ -25,301 +25,301 @@
     <t>F90</t>
   </si>
   <si>
+    <t>F83</t>
+  </si>
+  <si>
     <t>F78</t>
   </si>
   <si>
+    <t>F42</t>
+  </si>
+  <si>
     <t>F97</t>
   </si>
   <si>
     <t>F34</t>
   </si>
   <si>
-    <t>F83</t>
+    <t>F63</t>
   </si>
   <si>
     <t>F17</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F72</t>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F75</t>
   </si>
   <si>
     <t>F73</t>
   </si>
   <si>
-    <t>F71</t>
-  </si>
-  <si>
-    <t>F68</t>
-  </si>
-  <si>
-    <t>F15</t>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>diff_datas</t>
+  </si>
+  <si>
+    <t>F33</t>
   </si>
   <si>
     <t>F94</t>
   </si>
   <si>
-    <t>F0</t>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F57</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F29</t>
-  </si>
-  <si>
-    <t>diff_datas</t>
-  </si>
-  <si>
-    <t>F61</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F80</t>
-  </si>
-  <si>
-    <t>F24</t>
-  </si>
-  <si>
-    <t>F46</t>
-  </si>
-  <si>
-    <t>F33</t>
-  </si>
-  <si>
-    <t>F74</t>
-  </si>
-  <si>
-    <t>F22</t>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
-    <t>F99</t>
-  </si>
-  <si>
-    <t>F77</t>
-  </si>
-  <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>F96</t>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F6</t>
   </si>
   <si>
     <t>F88</t>
   </si>
   <si>
-    <t>F28</t>
-  </si>
-  <si>
-    <t>F44</t>
-  </si>
-  <si>
-    <t>F59</t>
-  </si>
-  <si>
-    <t>F98</t>
-  </si>
-  <si>
-    <t>F95</t>
-  </si>
-  <si>
-    <t>F64</t>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F93</t>
   </si>
   <si>
     <t>F56</t>
   </si>
   <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>F79</t>
-  </si>
-  <si>
-    <t>F60</t>
-  </si>
-  <si>
-    <t>F93</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>F23</t>
-  </si>
-  <si>
-    <t>F67</t>
-  </si>
-  <si>
-    <t>F39</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F53</t>
-  </si>
-  <si>
-    <t>F47</t>
-  </si>
-  <si>
-    <t>F66</t>
-  </si>
-  <si>
-    <t>F36</t>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F9</t>
   </si>
   <si>
     <t>Quant</t>
   </si>
   <si>
+    <t>Relator_TEORI ZAVASCKI</t>
+  </si>
+  <si>
     <t>assuntos AÇÃO PENAL</t>
   </si>
   <si>
-    <t>CRIME DA LEI DE DROGAS</t>
-  </si>
-  <si>
-    <t>CRIME DE ORGANIZAÇÃO CRIMINOSA</t>
-  </si>
-  <si>
-    <t>assuntos EXCESSO DE PRAZO PARA INSTRUÇÃO / JULGAMENTO</t>
-  </si>
-  <si>
-    <t>origem_MG - MINAS GERAIS</t>
+    <t>DESCONHECIDO</t>
+  </si>
+  <si>
+    <t>Relator_CELSO DE MELLO</t>
   </si>
   <si>
     <t>origem_PR - PARANÁ</t>
   </si>
   <si>
-    <t>Relator_AYRES BRITTO</t>
+    <t>CRIME DA LEI DE ARMAS</t>
+  </si>
+  <si>
+    <t>CRIME OUTROS DAS LEIS ESPECIAIS</t>
+  </si>
+  <si>
+    <t>origem_RJ - RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>assuntos REGIME INICIAL</t>
   </si>
   <si>
     <t>origem_RS - RIO GRANDE DO SUL</t>
   </si>
   <si>
-    <t>CRIME DA LEI DE ARMAS</t>
-  </si>
-  <si>
-    <t>origem_MT - MATO GROSSO</t>
-  </si>
-  <si>
-    <t>assuntos Desconhecido</t>
+    <t>CRIME DE LAVAGEM OU OCULTAÇÃO DE BENS</t>
+  </si>
+  <si>
+    <t>origem_PA - PARÁ</t>
+  </si>
+  <si>
+    <t>origem_DF - DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>origem_TO - TOCANTINS</t>
+  </si>
+  <si>
+    <t>assuntos HOMICÍDIO QUALIFICADO</t>
+  </si>
+  <si>
+    <t>origem_GO - GOIÁS</t>
+  </si>
+  <si>
+    <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
+  </si>
+  <si>
+    <t>assuntos CERCEAMENTO DE DEFESA</t>
+  </si>
+  <si>
+    <t>origem_MS - MATO GROSSO DO SUL</t>
+  </si>
+  <si>
+    <t>assuntos DESPENALIZAÇÃO / DESCRIMINALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos INVESTIGAÇÃO PENAL</t>
+  </si>
+  <si>
+    <t>origem_PI - PIAUÍ</t>
+  </si>
+  <si>
+    <t>assuntos EXECUÇÃO PENAL PROVISÓRIA - CABIMENTO</t>
+  </si>
+  <si>
+    <t>assuntos RECURSO</t>
+  </si>
+  <si>
+    <t>assuntos PRINCÍPIO DA INSIGNIFICÂNCIA</t>
+  </si>
+  <si>
+    <t>assuntos PRISÃO DECORRENTE DE SENTENÇA CONDENATÓRIA</t>
+  </si>
+  <si>
+    <t>Relator_OCTAVIO GALLOTTI</t>
   </si>
   <si>
     <t>assuntos PENA PRIVATIVA DE LIBERDADE</t>
   </si>
   <si>
-    <t>origem_AL - ALAGOAS</t>
-  </si>
-  <si>
-    <t>origem_AC - ACRE</t>
-  </si>
-  <si>
-    <t>assuntos EXTINÇÃO DA PUNIBILIDADE</t>
-  </si>
-  <si>
-    <t>origem_GO - GOIÁS</t>
-  </si>
-  <si>
-    <t>assuntos MEDIDAS SÓCIO-EDUCATIVAS</t>
-  </si>
-  <si>
-    <t>assuntos PRESCRIÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos PROGRESSÃO DE REGIME</t>
+    <t>assuntos FIANÇA</t>
+  </si>
+  <si>
+    <t>assuntos ROUBO</t>
+  </si>
+  <si>
+    <t>assuntos CRIMES PRATICADOS POR FUNCIONÁRIOS PÚBLICOS CONTRA A ADMINISTRAÇÃO EM GERAL</t>
+  </si>
+  <si>
+    <t>assuntos RECEPTAÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos ROUBO QUALIFICADO</t>
+  </si>
+  <si>
+    <t>assuntos GARANTIAS CONSTITUCIONAIS</t>
+  </si>
+  <si>
+    <t>assuntos CRIMES CONTRA O PATRIMÔNIO</t>
+  </si>
+  <si>
+    <t>assuntos EXTRADIÇÃO</t>
   </si>
   <si>
     <t>origem_RN - RIO GRANDE DO NORTE</t>
   </si>
   <si>
-    <t>assuntos FIANÇA</t>
-  </si>
-  <si>
-    <t>assuntos IMPEDIMENTO</t>
-  </si>
-  <si>
-    <t>assuntos LIVRAMENTO CONDICIONAL</t>
-  </si>
-  <si>
-    <t>origem_PI - PIAUÍ</t>
-  </si>
-  <si>
-    <t>assuntos CERCEAMENTO DE DEFESA</t>
-  </si>
-  <si>
-    <t>assuntos GARANTIAS CONSTITUCIONAIS</t>
-  </si>
-  <si>
-    <t>assuntos DIREITO CIVIL</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
-  </si>
-  <si>
-    <t>assuntos CONTRABANDO OU DESCAMINHO</t>
-  </si>
-  <si>
-    <t>assuntos VIOLÊNCIA DOMÉSTICA CONTRA A MULHER</t>
-  </si>
-  <si>
-    <t>Relator_ILMAR GALVÃO</t>
+    <t>assuntos FURTO</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DO MP</t>
+  </si>
+  <si>
+    <t>assuntos INTERNAÇÃO SEM ATIVIDADES EXTERNAS</t>
+  </si>
+  <si>
+    <t>assuntos INSERÇÃO DE DADOS FALSOS EM SISTEMA DE INFORMAÇÕES</t>
+  </si>
+  <si>
+    <t>assuntos RECEPTAÇÃO QUALIFICADA</t>
+  </si>
+  <si>
+    <t>assuntos CRIMES MILITARES</t>
+  </si>
+  <si>
+    <t>assuntos MEDIDAS DE SEGURANÇA</t>
+  </si>
+  <si>
+    <t>assuntos ASSOCIAÇÃO PARA A PRODUÇÃO E TRÁFICO E CONDUTAS AFINS</t>
   </si>
   <si>
     <t>assuntos MANDATO</t>
   </si>
   <si>
-    <t>assuntos SUSPEIÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos FATOS JURÍDICOS</t>
-  </si>
-  <si>
-    <t>assuntos CRIMES CONTRA A PAZ PÚBLICA</t>
-  </si>
-  <si>
-    <t>assuntos COLABORAÇÃO COM GRUPO, ORGANIZAÇÃO OU ASSOCIAÇÃO DESTINADOS À PRODUÇÃO OU TRÁFICO DE DROGAS</t>
-  </si>
-  <si>
-    <t>assuntos AÇÃO PENAL MILITAR</t>
-  </si>
-  <si>
-    <t>assuntos DIREITO PROCESSUAL PENAL MILITAR</t>
-  </si>
-  <si>
-    <t>assuntos ESTRANGEIRO</t>
-  </si>
-  <si>
-    <t>Relator_CEZAR PELUSO</t>
-  </si>
-  <si>
-    <t>assuntos ROUBO QUALIFICADO</t>
-  </si>
-  <si>
-    <t>assuntos DESPENALIZAÇÃO / DESCRIMINALIZAÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos CRIMES PRATICADOS POR FUNCIONÁRIOS PÚBLICOS CONTRA A ADMINISTRAÇÃO EM GERAL</t>
-  </si>
-  <si>
-    <t>assuntos ABOLITIO CRIMINIS</t>
-  </si>
-  <si>
-    <t>assuntos FURTO (ART. 155)</t>
-  </si>
-  <si>
-    <t>assuntos SUSPENSÃO CONDICIONAL DA PENA</t>
-  </si>
-  <si>
-    <t>assuntos NULIDADE OU ANULAÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos PERDA DA FUNÇÃO PÚBLICA</t>
+    <t>assuntos TRATAMENTO AMBULATORIAL</t>
+  </si>
+  <si>
+    <t>assuntos CONTRA A LIBERDADE PESSOAL</t>
+  </si>
+  <si>
+    <t>Relator_ALEXANDRE DE MORAES</t>
+  </si>
+  <si>
+    <t>Relator_JOAQUIM BARBOSA</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DA JUSTIÇA ESTADUAL</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.04069066301742502</v>
+        <v>0.04029568166133649</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.02698089040688429</v>
+        <v>0.03103233907919126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02581498611895819</v>
+        <v>0.02872871314668321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.02564409260511601</v>
+        <v>0.02811356968078698</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.02486567260495482</v>
+        <v>0.02654505450125155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.02448240211570503</v>
+        <v>0.02606623821745416</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02438608801694697</v>
+        <v>0.02525480006076137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02298600729557357</v>
+        <v>0.02430122007618133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02243972824695277</v>
+        <v>0.02364864194982904</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02181857785879988</v>
+        <v>0.02291440467758419</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02141060817386365</v>
+        <v>0.02269342242667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02127109428438361</v>
+        <v>0.02259955118956923</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02120104364955526</v>
+        <v>0.02221597663582353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.0209436491529418</v>
+        <v>0.02147393957133443</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01997002675477695</v>
+        <v>0.02137496611571428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01991515838456152</v>
+        <v>0.02131176744468444</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01918854538928719</v>
+        <v>0.02099497048302123</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01913204464360285</v>
+        <v>0.02089804957454499</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01907676901369528</v>
+        <v>0.02077018208508569</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01896504813292133</v>
+        <v>0.02074148376885271</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01864048255479471</v>
+        <v>0.02044319393415217</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01862751330987299</v>
+        <v>0.02020822955845596</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01842698849022017</v>
+        <v>0.01991315395767044</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01839251902500841</v>
+        <v>0.01962705230198286</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01805584555086494</v>
+        <v>0.01962436920363879</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01788479302045522</v>
+        <v>0.01909286892395635</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01788191426568808</v>
+        <v>0.01876483114402286</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01784826382540661</v>
+        <v>0.01861729135877461</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01768154716855466</v>
+        <v>0.01838762283013011</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01759125355257019</v>
+        <v>0.01801517910922758</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01734255474742076</v>
+        <v>0.01758102197122463</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01715655238453298</v>
+        <v>0.01752935799143351</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01704488863062429</v>
+        <v>0.01664713620131197</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01682705435885778</v>
+        <v>0.01659268078485632</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01649910462947688</v>
+        <v>0.01617040825238565</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01646032930060788</v>
+        <v>0.0161127456100479</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01634145079488229</v>
+        <v>0.01610377021582633</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.01607815764756938</v>
+        <v>0.0157991282658198</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.01590295847638258</v>
+        <v>0.01573086773665583</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01576275922514708</v>
+        <v>0.01553427443627944</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.0156802138319664</v>
+        <v>0.01551222266459387</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.01554141582259708</v>
+        <v>0.01545281918909388</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01542188410167761</v>
+        <v>0.01475098519444255</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.01531876956433972</v>
+        <v>0.0147022654334333</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.01526918077534206</v>
+        <v>0.01462300764547193</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.01526601800638909</v>
+        <v>0.01453947728745049</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.01470835093439525</v>
+        <v>0.01446716379425859</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.01431314916107776</v>
+        <v>0.0143902297501911</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.01380604267314743</v>
+        <v>0.01309925507997208</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.01368942994938068</v>
+        <v>0.004083143557613475</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.0134481067946259</v>
+        <v>0.003620095502760234</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.01093421182215441</v>
+        <v>0.002209454613957741</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.003535030030170891</v>
+        <v>0.001141780721672007</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.00267412583093152</v>
+        <v>0.001070964095492413</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.002600481644028628</v>
+        <v>0.0009758500701912941</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.001744530802299016</v>
+        <v>0.000935045904257447</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.001209089915757845</v>
+        <v>0.000840135652582821</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.0008628225490931355</v>
+        <v>0.0006299111553983144</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.0007567745756392691</v>
+        <v>0.0006134533441027766</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.0007334164769658945</v>
+        <v>0.0005626628617574308</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.0005937028466741776</v>
+        <v>0.000510298658977049</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.0005866870145197278</v>
+        <v>0.000501226517920712</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.0005460265657845243</v>
+        <v>0.0003341411651630895</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.0005000584520184747</v>
+        <v>0.000300288796455193</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.0003203800233442507</v>
+        <v>0.0002589555241001418</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.000278249036543151</v>
+        <v>0.0002081770209075975</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.0002778165870697516</v>
+        <v>0.0001866452241675266</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.0002678418814605337</v>
+        <v>0.000157941847228181</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.000249998929314223</v>
+        <v>0.0001425380152931379</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.0001877143077835267</v>
+        <v>0.0001393987945412168</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.000183213936668145</v>
+        <v>8.910725225537135E-05</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.0001431497000496346</v>
+        <v>8.852043761863598E-05</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.0001167194652039979</v>
+        <v>8.789041772538163E-05</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.000110450552648678</v>
+        <v>8.61067147156607E-05</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.0001084011650705123</v>
+        <v>7.981782479026043E-05</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>8.383736379776041E-05</v>
+        <v>7.025798047280141E-05</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7.610761455591971E-05</v>
+        <v>6.860815476109624E-05</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>6.395660088030849E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>5.428470022762836E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>2.911837288604111E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2.797363211814472E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>2.634549891394706E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2.489366464359564E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">

--- a/modeling/results/feature_imp_attr_text_emb.xlsx
+++ b/modeling/results/feature_imp_attr_text_emb.xlsx
@@ -28,298 +28,298 @@
     <t>F83</t>
   </si>
   <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
     <t>F78</t>
   </si>
   <si>
-    <t>F42</t>
-  </si>
-  <si>
-    <t>F97</t>
-  </si>
-  <si>
-    <t>F34</t>
-  </si>
-  <si>
-    <t>F63</t>
-  </si>
-  <si>
-    <t>F17</t>
-  </si>
-  <si>
-    <t>F99</t>
-  </si>
-  <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>F62</t>
-  </si>
-  <si>
     <t>F96</t>
   </si>
   <si>
+    <t>F73</t>
+  </si>
+  <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0</t>
-  </si>
-  <si>
     <t>F15</t>
   </si>
   <si>
-    <t>F49</t>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F10</t>
   </si>
   <si>
     <t>F29</t>
   </si>
   <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>diff_datas</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
     <t>F75</t>
   </si>
   <si>
-    <t>F73</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F61</t>
-  </si>
-  <si>
-    <t>F46</t>
-  </si>
-  <si>
-    <t>diff_datas</t>
-  </si>
-  <si>
-    <t>F33</t>
-  </si>
-  <si>
-    <t>F94</t>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F57</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F64</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F48</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F87</t>
-  </si>
-  <si>
-    <t>F89</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F88</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>F20</t>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F65</t>
   </si>
   <si>
     <t>F93</t>
   </si>
   <si>
-    <t>F56</t>
-  </si>
-  <si>
-    <t>F82</t>
-  </si>
-  <si>
-    <t>F54</t>
-  </si>
-  <si>
-    <t>F50</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
     <t>Quant</t>
   </si>
   <si>
+    <t>Relator_MARCO AURÉLIO</t>
+  </si>
+  <si>
+    <t>assuntos AÇÃO PENAL</t>
+  </si>
+  <si>
+    <t>Relator_CELSO DE MELLO</t>
+  </si>
+  <si>
+    <t>assuntos CRIMES DE TRÁFICO ILÍCITO E USO INDEVIDO DE DROGAS</t>
+  </si>
+  <si>
+    <t>Relator_RICARDO LEWANDOWSKI</t>
+  </si>
+  <si>
     <t>Relator_TEORI ZAVASCKI</t>
   </si>
   <si>
-    <t>assuntos AÇÃO PENAL</t>
-  </si>
-  <si>
-    <t>DESCONHECIDO</t>
-  </si>
-  <si>
-    <t>Relator_CELSO DE MELLO</t>
-  </si>
-  <si>
-    <t>origem_PR - PARANÁ</t>
-  </si>
-  <si>
-    <t>CRIME DA LEI DE ARMAS</t>
-  </si>
-  <si>
-    <t>CRIME OUTROS DAS LEIS ESPECIAIS</t>
-  </si>
-  <si>
-    <t>origem_RJ - RIO DE JANEIRO</t>
+    <t>assuntos PARTE GERAL</t>
+  </si>
+  <si>
+    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
+  </si>
+  <si>
+    <t>origem_DF - DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>assuntos EXECUÇÃO PENAL PROVISÓRIA - CABIMENTO</t>
   </si>
   <si>
     <t>assuntos REGIME INICIAL</t>
   </si>
   <si>
-    <t>origem_RS - RIO GRANDE DO SUL</t>
-  </si>
-  <si>
-    <t>CRIME DE LAVAGEM OU OCULTAÇÃO DE BENS</t>
-  </si>
-  <si>
-    <t>origem_PA - PARÁ</t>
-  </si>
-  <si>
-    <t>origem_DF - DISTRITO FEDERAL</t>
+    <t>assuntos AGENTES POLÍTICOS</t>
+  </si>
+  <si>
+    <t>assuntos RECURSO</t>
+  </si>
+  <si>
+    <t>assuntos FIANÇA</t>
+  </si>
+  <si>
+    <t>assuntos PRESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>origem_MS - MATO GROSSO DO SUL</t>
+  </si>
+  <si>
+    <t>origem_PI - PIAUÍ</t>
+  </si>
+  <si>
+    <t>origem_ES - ESPÍRITO SANTO</t>
+  </si>
+  <si>
+    <t>assuntos DE TRÁFICO ILÍCITO E USO INDEVIDO DE DROGAS</t>
+  </si>
+  <si>
+    <t>assuntos MEDIDAS SÓCIO-EDUCATIVAS</t>
+  </si>
+  <si>
+    <t>origem_RN - RIO GRANDE DO NORTE</t>
+  </si>
+  <si>
+    <t>assuntos JURISDIÇÃO E COMPETÊNCIA</t>
+  </si>
+  <si>
+    <t>Relator_ILMAR GALVÃO</t>
+  </si>
+  <si>
+    <t>assuntos CRIMES CONTRA A VIDA</t>
+  </si>
+  <si>
+    <t>assuntos ROUBO QUALIFICADO</t>
+  </si>
+  <si>
+    <t>assuntos PENA RESTRITIVA DE DIREITOS</t>
+  </si>
+  <si>
+    <t>assuntos LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>origem_MA - MARANHÃO</t>
+  </si>
+  <si>
+    <t>origem_SE - SERGIPE</t>
   </si>
   <si>
     <t>origem_TO - TOCANTINS</t>
   </si>
   <si>
-    <t>assuntos HOMICÍDIO QUALIFICADO</t>
-  </si>
-  <si>
-    <t>origem_GO - GOIÁS</t>
-  </si>
-  <si>
-    <t>assuntos PREVISTOS NA LEGISLAÇÃO EXTRAVAGANTE</t>
-  </si>
-  <si>
-    <t>assuntos CERCEAMENTO DE DEFESA</t>
-  </si>
-  <si>
-    <t>origem_MS - MATO GROSSO DO SUL</t>
+    <t>assuntos INVESTIGAÇÃO PENAL</t>
+  </si>
+  <si>
+    <t>assuntos CORRUPÇÃO PASSIVA</t>
+  </si>
+  <si>
+    <t>assuntos APROPRIAÇÃO INDÉBITA</t>
+  </si>
+  <si>
+    <t>assuntos ROUBO</t>
+  </si>
+  <si>
+    <t>assuntos EXTRADIÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos ENTIDADES ADMINISTRATIVAS / ADMINISTRAÇÃO PÚBLICA</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DA JUSTIÇA MILITAR DA UNIÃO</t>
+  </si>
+  <si>
+    <t>assuntos SUSPENSÃO CONDICIONAL DA PENA</t>
+  </si>
+  <si>
+    <t>assuntos DIREITO PENAL MILITAR</t>
+  </si>
+  <si>
+    <t>assuntos CRIMES CONTRA A FÉ PÚBLICA</t>
   </si>
   <si>
     <t>assuntos DESPENALIZAÇÃO / DESCRIMINALIZAÇÃO</t>
   </si>
   <si>
-    <t>assuntos INVESTIGAÇÃO PENAL</t>
-  </si>
-  <si>
-    <t>origem_PI - PIAUÍ</t>
-  </si>
-  <si>
-    <t>assuntos EXECUÇÃO PENAL PROVISÓRIA - CABIMENTO</t>
-  </si>
-  <si>
-    <t>assuntos RECURSO</t>
-  </si>
-  <si>
-    <t>assuntos PRINCÍPIO DA INSIGNIFICÂNCIA</t>
-  </si>
-  <si>
-    <t>assuntos PRISÃO DECORRENTE DE SENTENÇA CONDENATÓRIA</t>
-  </si>
-  <si>
-    <t>Relator_OCTAVIO GALLOTTI</t>
-  </si>
-  <si>
-    <t>assuntos PENA PRIVATIVA DE LIBERDADE</t>
-  </si>
-  <si>
-    <t>assuntos FIANÇA</t>
-  </si>
-  <si>
-    <t>assuntos ROUBO</t>
-  </si>
-  <si>
-    <t>assuntos CRIMES PRATICADOS POR FUNCIONÁRIOS PÚBLICOS CONTRA A ADMINISTRAÇÃO EM GERAL</t>
-  </si>
-  <si>
-    <t>assuntos RECEPTAÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos ROUBO QUALIFICADO</t>
-  </si>
-  <si>
-    <t>assuntos GARANTIAS CONSTITUCIONAIS</t>
-  </si>
-  <si>
-    <t>assuntos CRIMES CONTRA O PATRIMÔNIO</t>
-  </si>
-  <si>
-    <t>assuntos EXTRADIÇÃO</t>
-  </si>
-  <si>
-    <t>origem_RN - RIO GRANDE DO NORTE</t>
-  </si>
-  <si>
-    <t>assuntos FURTO</t>
-  </si>
-  <si>
-    <t>assuntos COMPETÊNCIA DO MP</t>
-  </si>
-  <si>
-    <t>assuntos INTERNAÇÃO SEM ATIVIDADES EXTERNAS</t>
-  </si>
-  <si>
-    <t>assuntos INSERÇÃO DE DADOS FALSOS EM SISTEMA DE INFORMAÇÕES</t>
+    <t>assuntos TRANCAMENTO - FALTA DE JUSTA CAUSA - COMPETÊNCIA</t>
+  </si>
+  <si>
+    <t>assuntos EXTINÇÃO DA PUNIBILIDADE</t>
+  </si>
+  <si>
+    <t>assuntos INDEFERIMENTO</t>
+  </si>
+  <si>
+    <t>Relator_ALEXANDRE DE MORAES</t>
+  </si>
+  <si>
+    <t>assuntos ESTELIONATO MAJORADO</t>
+  </si>
+  <si>
+    <t>assuntos CONTRA A VIDA</t>
   </si>
   <si>
     <t>assuntos RECEPTAÇÃO QUALIFICADA</t>
   </si>
   <si>
+    <t>assuntos ASSUNTOS DIVERSOS</t>
+  </si>
+  <si>
+    <t>assuntos POSSE DE DROGAS PARA CONSUMO PESSOAL</t>
+  </si>
+  <si>
+    <t>assuntos SUSPEIÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos FURTO (ART. 155)</t>
+  </si>
+  <si>
+    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
+  </si>
+  <si>
+    <t>assuntos ESTRANGEIRO</t>
+  </si>
+  <si>
+    <t>assuntos PREFEITO</t>
+  </si>
+  <si>
     <t>assuntos CRIMES MILITARES</t>
-  </si>
-  <si>
-    <t>assuntos MEDIDAS DE SEGURANÇA</t>
-  </si>
-  <si>
-    <t>assuntos ASSOCIAÇÃO PARA A PRODUÇÃO E TRÁFICO E CONDUTAS AFINS</t>
-  </si>
-  <si>
-    <t>assuntos MANDATO</t>
-  </si>
-  <si>
-    <t>assuntos TRATAMENTO AMBULATORIAL</t>
-  </si>
-  <si>
-    <t>assuntos CONTRA A LIBERDADE PESSOAL</t>
-  </si>
-  <si>
-    <t>Relator_ALEXANDRE DE MORAES</t>
-  </si>
-  <si>
-    <t>Relator_JOAQUIM BARBOSA</t>
-  </si>
-  <si>
-    <t>assuntos COMPETÊNCIA DA JUSTIÇA ESTADUAL</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.04029568166133649</v>
+        <v>0.04799087774521785</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.03103233907919126</v>
+        <v>0.03429410810048817</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02872871314668321</v>
+        <v>0.03255169624802462</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.02811356968078698</v>
+        <v>0.03151905816228584</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.02654505450125155</v>
+        <v>0.02997917727095412</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.02606623821745416</v>
+        <v>0.02892271610556065</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02525480006076137</v>
+        <v>0.02872654370191325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02430122007618133</v>
+        <v>0.02664711685587983</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02364864194982904</v>
+        <v>0.02632788167095483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02291440467758419</v>
+        <v>0.02622699566143711</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02269342242667</v>
+        <v>0.02431067320203645</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02259955118956923</v>
+        <v>0.02420845846615444</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02221597663582353</v>
+        <v>0.0240212696960839</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02147393957133443</v>
+        <v>0.023367343518131</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02137496611571428</v>
+        <v>0.0230680094527759</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02131176744468444</v>
+        <v>0.02303337046039326</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.02099497048302123</v>
+        <v>0.0229643416438726</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02089804957454499</v>
+        <v>0.02278127061825262</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.02077018208508569</v>
+        <v>0.02273830062769695</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02074148376885271</v>
+        <v>0.02262756261617888</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.02044319393415217</v>
+        <v>0.02218032576845136</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.02020822955845596</v>
+        <v>0.02159099931618417</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01991315395767044</v>
+        <v>0.02141998304815282</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01962705230198286</v>
+        <v>0.02125293836918138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01962436920363879</v>
+        <v>0.0211503376144441</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01909286892395635</v>
+        <v>0.02105436389498287</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01876483114402286</v>
+        <v>0.02096334393261877</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01861729135877461</v>
+        <v>0.01972812175985152</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01838762283013011</v>
+        <v>0.0189877484034479</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01801517910922758</v>
+        <v>0.01878723438563705</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01758102197122463</v>
+        <v>0.01870302683442157</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01752935799143351</v>
+        <v>0.01845891189734249</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01664713620131197</v>
+        <v>0.01820533702553595</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01659268078485632</v>
+        <v>0.01809752839620386</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01617040825238565</v>
+        <v>0.01803353201131495</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.0161127456100479</v>
+        <v>0.01764299352516483</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01610377021582633</v>
+        <v>0.01762628017831094</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.0157991282658198</v>
+        <v>0.01728259994330015</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.01573086773665583</v>
+        <v>0.01717887747970116</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01553427443627944</v>
+        <v>0.01644937253716352</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.01551222266459387</v>
+        <v>0.01541937397836436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.01545281918909388</v>
+        <v>0.01532930874971058</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01475098519444255</v>
+        <v>0.01391462997282412</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.0147022654334333</v>
+        <v>0.008504786630679422</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.01462300764547193</v>
+        <v>0.002606426653039174</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.01453947728745049</v>
+        <v>0.002122181117574401</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.01446716379425859</v>
+        <v>0.001487821512238104</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.0143902297501911</v>
+        <v>0.001391824813860806</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.01309925507997208</v>
+        <v>0.001213354516898037</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.004083143557613475</v>
+        <v>0.001034420118042649</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.003620095502760234</v>
+        <v>0.0009807093217822067</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.002209454613957741</v>
+        <v>0.0007489235271382205</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.001141780721672007</v>
+        <v>0.0006216190691860354</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.001070964095492413</v>
+        <v>0.0004678703018458059</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.0009758500701912941</v>
+        <v>0.0004605702534764451</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.000935045904257447</v>
+        <v>0.000320039963813677</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.000840135652582821</v>
+        <v>0.0003094014616737168</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.0006299111553983144</v>
+        <v>0.0002101926394933534</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.0006134533441027766</v>
+        <v>0.0002044421586112122</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.0005626628617574308</v>
+        <v>0.0001936608054188785</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.000510298658977049</v>
+        <v>0.0001904564046055977</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.000501226517920712</v>
+        <v>0.0001613490865089992</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.0003341411651630895</v>
+        <v>0.0001551402390963831</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.000300288796455193</v>
+        <v>0.0001130357794669021</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.0002589555241001418</v>
+        <v>0.0001097936228144627</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.0002081770209075975</v>
+        <v>8.49267648440651E-05</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.0001866452241675266</v>
+        <v>7.576537200077153E-05</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.000157941847228181</v>
+        <v>7.396958841971032E-05</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.0001425380152931379</v>
+        <v>6.409043898682057E-05</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.0001393987945412168</v>
+        <v>5.926207070967858E-05</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8.910725225537135E-05</v>
+        <v>5.618071246601114E-05</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>8.852043761863598E-05</v>
+        <v>5.574772305387321E-05</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>8.789041772538163E-05</v>
+        <v>5.458271387251018E-05</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>8.61067147156607E-05</v>
+        <v>5.42815008758997E-05</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>7.981782479026043E-05</v>
+        <v>4.923227090362939E-05</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.025798047280141E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6.860815476109624E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
